--- a/consolidated_data.xlsx
+++ b/consolidated_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4998405bfa683476/Documents/Cuny MSDS/Data 602_Advanced Programming Techniques/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\month\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24E1192B-5E70-40FA-973D-BDA65DFA01FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3DA708-D79F-40AE-AACA-5ACCEE4E8813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Year</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>Annual_default_rate</t>
-  </si>
-  <si>
-    <t>Note: The sales price includes the land.</t>
   </si>
 </sst>
 </file>
@@ -406,9 +403,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1613,11 +1612,6 @@
         <v>1.0974999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
